--- a/3.读写文件/2.新版软件/new/object/客观题.xlsx
+++ b/3.读写文件/2.新版软件/new/object/客观题.xlsx
@@ -1,266 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve"> 题目类型 1单选 2多选</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 题干类型 1文字 2图片 3音频 (根据类型使用对应题目信息)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 对应题干类型(1题目文字内容 2题目图片_单图 3题目音频_单音频)，图片ftp在系统设置中</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 题目音频秒数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 选项类型 1文字 2图片 3音频 (根据类型使用对应选项信息)</t>
-  </si>
-  <si>
-    <t>选项1是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项1内容</t>
-  </si>
-  <si>
-    <t>选项1为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>选项2是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项2内容</t>
-  </si>
-  <si>
-    <t>选项2为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>选项3是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项3内容</t>
-  </si>
-  <si>
-    <t>选项3为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>选项4是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项4内容</t>
-  </si>
-  <si>
-    <t>选项4为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>选项5是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项5内容</t>
-  </si>
-  <si>
-    <t>选项5为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>选项6是否正确 1是 2否</t>
-  </si>
-  <si>
-    <t>选项6内容</t>
-  </si>
-  <si>
-    <t>选项6为语音是语音秒数</t>
-  </si>
-  <si>
-    <t>解析（必须以代码形式导入）</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -582,158 +500,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,11 +707,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1080,139 +1061,691 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="61.875" customWidth="1"/>
-    <col min="3" max="3" width="92.25" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="61.875" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.875" customWidth="1"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
-    <col min="14" max="14" width="23.875" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="23.875" customWidth="1"/>
-    <col min="18" max="18" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="10.625" customWidth="1"/>
-    <col min="24" max="24" width="29.375" customWidth="1"/>
+    <col width="24.5" customWidth="1" min="1" max="1"/>
+    <col width="61.8796296296296" customWidth="1" min="2" max="2"/>
+    <col width="92.25" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="61.8796296296296" customWidth="1" min="5" max="5"/>
+    <col width="24.5" customWidth="1" min="6" max="6"/>
+    <col width="23.8796296296296" customWidth="1" min="8" max="8"/>
+    <col width="23.8796296296296" customWidth="1" min="11" max="11"/>
+    <col width="23.8796296296296" customWidth="1" min="14" max="14"/>
+    <col width="10.6296296296296" customWidth="1" min="16" max="16"/>
+    <col width="23.8796296296296" customWidth="1" min="17" max="17"/>
+    <col width="24.5" customWidth="1" min="18" max="18"/>
+    <col width="10.6296296296296" customWidth="1" min="22" max="22"/>
+    <col width="29.3796296296296" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 题目类型 1单选 2多选</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 题干类型 1文字 2图片 3音频 (根据类型使用对应题目信息)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 对应题干类型(1题目文字内容 2题目图片_单图 3题目音频_单音频)，图片ftp在系统设置中</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 题目音频秒数</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 选项类型 1文字 2图片 3音频 (根据类型使用对应选项信息)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>选项1是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>选项1内容</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>选项1为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>选项2是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>选项2内容</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>选项2为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>选项3是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>选项3内容</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>选项3为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>选项4是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>选项4内容</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>选项4为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>选项5是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>选项5内容</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>选项5为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>选项6是否正确 1是 2否</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>选项6内容</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>选项6为语音是语音秒数</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>解析（必须以代码形式导入）</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="3:3">
-      <c r="C2" s="3"/>
+    <row r="2" ht="39" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.扫描仪是一种（），手机是一种________。
+</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.输出设备、输入/输出设备
+</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.输入设备、输入/输出设备
+</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.输出设备、输入设备
+</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.输入设备、输出设备
+</t>
+        </is>
+      </c>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="3:3">
-      <c r="C4" s="3"/>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.CSF 是用于________的一种方法.
+</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.信息系统调研
+</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.信息系统设计
+</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.信息系统规划
+</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.信息系统开发
+</t>
+        </is>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:22">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="U5"/>
-      <c r="V5"/>
+    <row r="4" ht="27" customHeight="1">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.Windows 是一种________的名称，而 Access 是一种________的名称。
+</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.数据库管理系统，操作系统
+</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.操作系统，应用软件
+</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.操作系统，DBMA
+</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.应用软件，操作系统
+</t>
+        </is>
+      </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="7:16">
-      <c r="G6" s="3"/>
-      <c r="P6" s="3"/>
+    <row r="5" customFormat="1" s="1">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.在员工数据库中某一个________代表这个员工的全部信息，________作为主关键字。
+</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.记录、姓名
+</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.数据项、姓名
+</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.文件、职工号
+</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.记录、职工号
+</t>
+        </is>
+      </c>
     </row>
-    <row r="53" ht="21" customHeight="1" spans="3:3">
-      <c r="C53" s="3"/>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.有益和有害信息都可以在互联网上迅速扩散， 体现的是信息的________;而数据库中的数据可以被各种应用程序所调用体现的是信息的 ________。 
+</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.可传递性、可共享性
+</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.可扩散性、增值性
+</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.可存储性、可共享性
+</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.增值性、可传输性
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.扫描仪是一种（），手机是一种________。
+</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.输出设备、输入/输出设备
+</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.输入设备、输入/输出设备
+</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.输出设备、输入设备
+</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.输入设备、输出设备
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.CSF 是用于________的一种方法.
+</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.信息系统调研
+</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.信息系统设计
+</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.信息系统规划
+</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.信息系统开发
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.Windows 是一种________的名称，而 Access 是一种________的名称。
+</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.数据库管理系统，操作系统
+</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.操作系统，应用软件
+</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.操作系统，DBMA
+</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.应用软件，操作系统
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.在员工数据库中某一个________代表这个员工的全部信息，________作为主关键字。
+</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.记录、姓名
+</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.数据项、姓名
+</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.文件、职工号
+</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.记录、职工号
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.有益和有害信息都可以在互联网上迅速扩散， 体现的是信息的________;而数据库中的数据可以被各种应用程序所调用体现的是信息的 ________。 
+</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A.可传递性、可共享性
+</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B.可扩散性、增值性
+</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.可存储性、可共享性
+</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D.增值性、可传输性
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="21" customHeight="1">
+      <c r="C53" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>